--- a/2020/cursos/etica/Octavo/Listados Etica 8-3.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46935D1-C350-4A31-A784-621C8B242D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F280B161-AB60-457E-A914-726C9A507A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>Codigo</t>
   </si>
@@ -260,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +280,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -305,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +333,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F14E4E-6367-4BCF-88A7-647C3E1932AC}">
   <dimension ref="A3:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,6 +1338,9 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1552,7 +1565,7 @@
       </c>
       <c r="D37" s="6">
         <f>COUNTA(D4:D36)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/2020/cursos/etica/Octavo/Listados Etica 8-3.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F280B161-AB60-457E-A914-726C9A507A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E426CC-551C-42CB-A813-E2327BDD05D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
   <si>
     <t>Codigo</t>
   </si>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +336,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F14E4E-6367-4BCF-88A7-647C3E1932AC}">
-  <dimension ref="A3:D42"/>
+  <dimension ref="A3:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,10 +1099,10 @@
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1112,8 +1115,14 @@
       <c r="D3" s="7">
         <v>43983</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>44006</v>
+      </c>
+      <c r="F3" s="7">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1905</v>
       </c>
@@ -1126,8 +1135,14 @@
       <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2251</v>
       </c>
@@ -1137,8 +1152,14 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4083</v>
       </c>
@@ -1151,8 +1172,14 @@
       <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1920</v>
       </c>
@@ -1165,8 +1192,14 @@
       <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2643</v>
       </c>
@@ -1179,8 +1212,14 @@
       <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1712</v>
       </c>
@@ -1193,8 +1232,14 @@
       <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4421</v>
       </c>
@@ -1204,8 +1249,10 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4025</v>
       </c>
@@ -1218,8 +1265,14 @@
       <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1939</v>
       </c>
@@ -1232,8 +1285,14 @@
       <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1931</v>
       </c>
@@ -1246,8 +1305,14 @@
       <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3875</v>
       </c>
@@ -1260,8 +1325,12 @@
       <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1924</v>
       </c>
@@ -1274,8 +1343,14 @@
       <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2085</v>
       </c>
@@ -1285,8 +1360,12 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2631</v>
       </c>
@@ -1299,8 +1378,14 @@
       <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2265</v>
       </c>
@@ -1313,8 +1398,14 @@
       <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4275</v>
       </c>
@@ -1327,8 +1418,14 @@
       <c r="D19" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3566</v>
       </c>
@@ -1341,8 +1438,14 @@
       <c r="D20" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4098</v>
       </c>
@@ -1355,8 +1458,14 @@
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1888</v>
       </c>
@@ -1369,8 +1478,14 @@
       <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4026</v>
       </c>
@@ -1383,8 +1498,14 @@
       <c r="D23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2296</v>
       </c>
@@ -1397,8 +1518,14 @@
       <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3247</v>
       </c>
@@ -1411,8 +1538,12 @@
       <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1726</v>
       </c>
@@ -1422,8 +1553,12 @@
       <c r="C26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2629</v>
       </c>
@@ -1436,8 +1571,14 @@
       <c r="D27" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1906</v>
       </c>
@@ -1450,8 +1591,14 @@
       <c r="D28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2097</v>
       </c>
@@ -1464,8 +1611,14 @@
       <c r="D29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2786</v>
       </c>
@@ -1478,8 +1631,14 @@
       <c r="D30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1932</v>
       </c>
@@ -1489,8 +1648,14 @@
       <c r="C31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>4120</v>
       </c>
@@ -1503,8 +1668,12 @@
       <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2640</v>
       </c>
@@ -1517,8 +1686,12 @@
       <c r="D33" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>752</v>
       </c>
@@ -1528,8 +1701,10 @@
       <c r="C34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1942</v>
       </c>
@@ -1542,8 +1717,14 @@
       <c r="D35" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2446</v>
       </c>
@@ -1556,8 +1737,14 @@
       <c r="D36" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="6" t="s">
@@ -1567,24 +1754,32 @@
         <f>COUNTA(D4:D36)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="6">
+        <f>COUNTA(E4:E36)</f>
+        <v>28</v>
+      </c>
+      <c r="F37" s="6">
+        <f>COUNTA(F4:F36)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
     </row>
